--- a/Tables/fmm_types.xlsx
+++ b/Tables/fmm_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AFB3B-9677-493E-8764-B6CBDDB91642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441EAD60-54F2-42FD-9B31-6937A65273F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7845" windowWidth="29040" windowHeight="15840" xr2:uid="{33E8A07C-4E87-48C5-9E7B-57BA391E82AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33E8A07C-4E87-48C5-9E7B-57BA391E82AA}"/>
   </bookViews>
   <sheets>
     <sheet name="fmm_types" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,23 +182,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,10 +210,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,7 +272,7 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>-1.73</v>
+            <v>-1.69**</v>
           </cell>
         </row>
         <row r="7">
@@ -262,12 +280,12 @@
             <v/>
           </cell>
           <cell r="B7" t="str">
-            <v>(0.76)</v>
+            <v>(0.74)</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>3.92</v>
+            <v>3.97</v>
           </cell>
         </row>
         <row r="10">
@@ -275,12 +293,12 @@
             <v/>
           </cell>
           <cell r="B10" t="str">
-            <v>(3.28)</v>
+            <v>(3.15)</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.48</v>
+            <v>0.61</v>
           </cell>
         </row>
         <row r="13">
@@ -288,7 +306,7 @@
             <v/>
           </cell>
           <cell r="B13" t="str">
-            <v>(0.63)</v>
+            <v>(0.72)</v>
           </cell>
         </row>
         <row r="18">
@@ -306,7 +324,7 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>0.068</v>
+            <v>0.10</v>
           </cell>
         </row>
         <row r="22">
@@ -314,12 +332,12 @@
             <v/>
           </cell>
           <cell r="B22" t="str">
-            <v>(0.54)</v>
+            <v>(0.56)</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>-2.88</v>
+            <v>-3.12</v>
           </cell>
         </row>
         <row r="25">
@@ -327,12 +345,12 @@
             <v/>
           </cell>
           <cell r="B25" t="str">
-            <v>(2.37)</v>
+            <v>(3.34)</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>-0.011</v>
+            <v>-0.010</v>
           </cell>
         </row>
         <row r="28">
@@ -345,7 +363,7 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>-0.031</v>
+            <v>-0.033</v>
           </cell>
         </row>
         <row r="31">
@@ -353,7 +371,7 @@
             <v/>
           </cell>
           <cell r="B31" t="str">
-            <v>(0.023)</v>
+            <v>(0.025)</v>
           </cell>
         </row>
         <row r="33">
@@ -366,12 +384,12 @@
             <v/>
           </cell>
           <cell r="B34" t="str">
-            <v>(0.45)</v>
+            <v>(0.47)</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>-1.00</v>
+            <v>-1.09</v>
           </cell>
         </row>
         <row r="37">
@@ -379,12 +397,12 @@
             <v/>
           </cell>
           <cell r="B37" t="str">
-            <v>(0.76)</v>
+            <v>(0.82)</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>6.72</v>
+            <v>7.03*</v>
           </cell>
         </row>
         <row r="40">
@@ -392,12 +410,12 @@
             <v/>
           </cell>
           <cell r="B40" t="str">
-            <v>(3.19)</v>
+            <v>(4.10)</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>-0.95</v>
+            <v>-0.92**</v>
           </cell>
         </row>
         <row r="81">
@@ -405,22 +423,22 @@
             <v/>
           </cell>
           <cell r="B81" t="str">
-            <v>(0.47)</v>
+            <v>(0.45)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>4.23</v>
+            <v>4.18**</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>(1.67)</v>
+            <v>(1.65)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>0.00012</v>
+            <v>0.00011</v>
           </cell>
         </row>
         <row r="87">
@@ -428,22 +446,22 @@
             <v/>
           </cell>
           <cell r="B87" t="str">
-            <v>(0.000082)</v>
+            <v>(0.000078)</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>-0.00080</v>
+            <v>-0.00078**</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>(0.00035)</v>
+            <v>(0.00034)</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>7.32</v>
+            <v>7.09**</v>
           </cell>
         </row>
         <row r="93">
@@ -451,27 +469,27 @@
             <v/>
           </cell>
           <cell r="B93" t="str">
-            <v>(3.37)</v>
+            <v>(3.22)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>-29.4</v>
+            <v>-29.2**</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>(11.5)</v>
+            <v>(11.4)</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>786</v>
+            <v>788</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>0.70</v>
+            <v>0.69</v>
           </cell>
         </row>
         <row r="100">
@@ -481,7 +499,7 @@
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>0.81</v>
+            <v>0.80</v>
           </cell>
         </row>
       </sheetData>
@@ -793,282 +811,282 @@
       <selection activeCell="C41" sqref="A3:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>[1]fmm_types!A2</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>[1]fmm_types!A3</f>
         <v/>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="str">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="11" t="str">
         <f>[1]fmm_types!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="13" t="str">
         <f>[1]fmm_types!B6</f>
-        <v>-1.73</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1.69**</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]fmm_types!A7</f>
         <v/>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="12" t="str">
         <f>[1]fmm_types!B7</f>
-        <v>(0.76)</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.74)</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="12" t="str">
         <f>[1]fmm_types!B9</f>
-        <v>3.92</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.97</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>[1]fmm_types!A10</f>
         <v/>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="12" t="str">
         <f>[1]fmm_types!B10</f>
-        <v>(3.28)</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(3.15)</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="12" t="str">
         <f>[1]fmm_types!B12</f>
-        <v>0.48</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.61</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>[1]fmm_types!A13</f>
         <v/>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="12" t="str">
         <f>[1]fmm_types!B13</f>
-        <v>(0.63)</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.72)</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="12" t="str">
         <f>[1]fmm_types!B18</f>
         <v>-1.11</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>[1]fmm_types!A19</f>
         <v/>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="12" t="str">
         <f>[1]fmm_types!B19</f>
         <v>(0.71)</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="12" t="str">
         <f>[1]fmm_types!B21</f>
-        <v>0.068</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.10</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>[1]fmm_types!A22</f>
         <v/>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" s="12" t="str">
         <f>[1]fmm_types!B22</f>
-        <v>(0.54)</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.56)</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="12" t="str">
         <f>[1]fmm_types!B24</f>
-        <v>-2.88</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-3.12</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>[1]fmm_types!A25</f>
         <v/>
       </c>
-      <c r="B16" s="1" t="str">
+      <c r="B16" s="12" t="str">
         <f>[1]fmm_types!B25</f>
-        <v>(2.37)</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(3.34)</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B17" s="12" t="str">
         <f>[1]fmm_types!B27</f>
-        <v>-0.011</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-0.010</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>[1]fmm_types!A28</f>
         <v/>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="12" t="str">
         <f>[1]fmm_types!B28</f>
         <v>(0.014)</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="12" t="str">
         <f>[1]fmm_types!B30</f>
-        <v>-0.031</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-0.033</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>[1]fmm_types!A31</f>
         <v/>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="12" t="str">
         <f>[1]fmm_types!B31</f>
-        <v>(0.023)</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.025)</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="12" t="str">
         <f>[1]fmm_types!B33</f>
         <v>-0.34</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>[1]fmm_types!A34</f>
         <v/>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="12" t="str">
         <f>[1]fmm_types!B34</f>
-        <v>(0.45)</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.47)</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="str">
+      <c r="B23" s="12" t="str">
         <f>[1]fmm_types!B36</f>
-        <v>-1.00</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-1.09</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>[1]fmm_types!A37</f>
         <v/>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="B24" s="12" t="str">
         <f>[1]fmm_types!B37</f>
-        <v>(0.76)</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.82)</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="str">
+      <c r="B25" s="12" t="str">
         <f>[1]fmm_types!B39</f>
-        <v>6.72</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="str">
+        <v>7.03*</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="str">
         <f>[1]fmm_types!A40</f>
         <v/>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="14" t="str">
         <f>[1]fmm_types!B40</f>
-        <v>(3.19)</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>(4.10)</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>1</v>
@@ -1077,146 +1095,170 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>[1]fmm_types!B80</f>
-        <v>-0.95</v>
+        <v>-0.92**</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>[1]fmm_types!B83</f>
-        <v>4.23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.18**</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>[1]fmm_types!A81</f>
         <v/>
       </c>
       <c r="B32" s="1" t="str">
         <f>[1]fmm_types!B81</f>
-        <v>(0.47)</v>
+        <v>(0.45)</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>[1]fmm_types!B84</f>
-        <v>(1.67)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(1.65)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="1" t="str">
         <f>[1]fmm_types!B86</f>
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>[1]fmm_types!B89</f>
-        <v>-0.00080</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-0.00078**</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>[1]fmm_types!A87</f>
         <v/>
       </c>
       <c r="B34" s="1" t="str">
         <f>[1]fmm_types!B87</f>
-        <v>(0.000082)</v>
+        <v>(0.000078)</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>[1]fmm_types!B90</f>
-        <v>(0.00035)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>(0.00034)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>[1]fmm_types!B92</f>
-        <v>7.32</v>
+        <v>7.09**</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>[1]fmm_types!B95</f>
-        <v>-29.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>-29.2**</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>[1]fmm_types!A93</f>
         <v/>
       </c>
       <c r="B36" s="1" t="str">
         <f>[1]fmm_types!B93</f>
-        <v>(3.37)</v>
+        <v>(3.22)</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>[1]fmm_types!B96</f>
-        <v>(11.5)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+        <v>(11.4)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="12" t="str">
+      <c r="B38" s="9" t="str">
         <f>[1]fmm_types!B98</f>
-        <v>786</v>
-      </c>
-      <c r="C38" s="12" t="str">
+        <v>788</v>
+      </c>
+      <c r="C38" s="9" t="str">
         <f>B38</f>
-        <v>786</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="9" t="str">
+      <c r="B39" s="7" t="str">
         <f>[1]fmm_types!B100</f>
         <v>0.58</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <f>1-B41</f>
-        <v>0.18999999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>[1]fmm_types!B99</f>
-        <v>0.70</v>
+        <v>0.69</v>
       </c>
       <c r="C40" s="1">
         <f>1-B40</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="5" t="str">
         <f>[1]fmm_types!B101</f>
-        <v>0.81</v>
-      </c>
-      <c r="C41" s="7">
+        <v>0.80</v>
+      </c>
+      <c r="C41" s="5">
         <f>1-B39</f>
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="25">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
